--- a/parameter_selection_model/latest_data.xlsx
+++ b/parameter_selection_model/latest_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmertens/Desktop/thesis/git_code/pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmertens/Desktop/thesis/git_code/parameter_selection_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597555C-3F9A-154B-A471-7EBED92F1693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43D367F-0B1E-6742-B337-A298B5E116EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="833">
   <si>
     <t>image</t>
   </si>
@@ -2492,12 +2492,6 @@
     <t>0.8952722482435598</t>
   </si>
   <si>
-    <t>dog-52</t>
-  </si>
-  <si>
-    <t>[[152, 342, 32, 428]]</t>
-  </si>
-  <si>
     <t>dog-53</t>
   </si>
   <si>
@@ -2507,12 +2501,6 @@
     <t>Hard</t>
   </si>
   <si>
-    <t>dog-54</t>
-  </si>
-  <si>
-    <t>[[29, 408, 240, 531]]</t>
-  </si>
-  <si>
     <t>cow-51</t>
   </si>
   <si>
@@ -2529,24 +2517,6 @@
   </si>
   <si>
     <t>[[196, 540, 13, 356]]</t>
-  </si>
-  <si>
-    <t>sheep-51</t>
-  </si>
-  <si>
-    <t>[[75, 377, 208, 401]]</t>
-  </si>
-  <si>
-    <t>sheep-52</t>
-  </si>
-  <si>
-    <t>[[103, 315, 237, 516]]</t>
-  </si>
-  <si>
-    <t>sheep-53</t>
-  </si>
-  <si>
-    <t>[[109, 326, 75, 284]]</t>
   </si>
   <si>
     <t>horse-51</t>
@@ -2575,7 +2545,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2591,6 +2561,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2635,7 +2612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2646,6 +2623,7 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2962,9 +2940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202:H398"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15928,6 +15906,21 @@
       <c r="N202" t="s">
         <v>446</v>
       </c>
+      <c r="P202" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>27</v>
+      </c>
+      <c r="R202" t="s">
+        <v>28</v>
+      </c>
+      <c r="S202">
+        <v>162.55913333333299</v>
+      </c>
+      <c r="T202">
+        <v>50.773181186287196</v>
+      </c>
     </row>
     <row r="203" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -15973,6 +15966,21 @@
       <c r="N203" t="s">
         <v>448</v>
       </c>
+      <c r="P203" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>34</v>
+      </c>
+      <c r="R203" t="s">
+        <v>28</v>
+      </c>
+      <c r="S203">
+        <v>125.766499560889</v>
+      </c>
+      <c r="T203">
+        <v>45.8545164274434</v>
+      </c>
     </row>
     <row r="204" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -16018,6 +16026,21 @@
       <c r="N204" t="s">
         <v>450</v>
       </c>
+      <c r="P204" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>34</v>
+      </c>
+      <c r="R204" t="s">
+        <v>28</v>
+      </c>
+      <c r="S204">
+        <v>178.57696135831301</v>
+      </c>
+      <c r="T204">
+        <v>63.880107087127698</v>
+      </c>
     </row>
     <row r="205" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -16063,6 +16086,21 @@
       <c r="N205" t="s">
         <v>452</v>
       </c>
+      <c r="P205" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>27</v>
+      </c>
+      <c r="R205" t="s">
+        <v>28</v>
+      </c>
+      <c r="S205">
+        <v>165.84371376773399</v>
+      </c>
+      <c r="T205">
+        <v>50.024926656703997</v>
+      </c>
     </row>
     <row r="206" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -16108,6 +16146,21 @@
       <c r="N206" t="s">
         <v>454</v>
       </c>
+      <c r="P206" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>27</v>
+      </c>
+      <c r="R206" t="s">
+        <v>28</v>
+      </c>
+      <c r="S206">
+        <v>130.42963211482899</v>
+      </c>
+      <c r="T206">
+        <v>49.414325392484301</v>
+      </c>
     </row>
     <row r="207" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -16153,6 +16206,21 @@
       <c r="N207" t="s">
         <v>456</v>
       </c>
+      <c r="P207" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>34</v>
+      </c>
+      <c r="R207" t="s">
+        <v>28</v>
+      </c>
+      <c r="S207">
+        <v>98.457410881801096</v>
+      </c>
+      <c r="T207">
+        <v>51.052386272690498</v>
+      </c>
     </row>
     <row r="208" spans="1:23" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -16198,8 +16266,23 @@
       <c r="N208" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P208" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>34</v>
+      </c>
+      <c r="R208" t="s">
+        <v>28</v>
+      </c>
+      <c r="S208">
+        <v>123.532589978828</v>
+      </c>
+      <c r="T208">
+        <v>45.8695258015888</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>47</v>
       </c>
@@ -16243,8 +16326,23 @@
       <c r="N209" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P209" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>27</v>
+      </c>
+      <c r="R209" t="s">
+        <v>28</v>
+      </c>
+      <c r="S209">
+        <v>98.0177951388888</v>
+      </c>
+      <c r="T209">
+        <v>55.770436855177799</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>49</v>
       </c>
@@ -16288,8 +16386,23 @@
       <c r="N210" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P210" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>27</v>
+      </c>
+      <c r="R210" t="s">
+        <v>28</v>
+      </c>
+      <c r="S210">
+        <v>131.513455064402</v>
+      </c>
+      <c r="T210">
+        <v>76.728463012822999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>51</v>
       </c>
@@ -16333,8 +16446,23 @@
       <c r="N211" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P211" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>27</v>
+      </c>
+      <c r="R211" t="s">
+        <v>28</v>
+      </c>
+      <c r="S211">
+        <v>118.573854015828</v>
+      </c>
+      <c r="T211">
+        <v>48.242023929613801</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -16378,8 +16506,23 @@
       <c r="N212" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P212" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>55</v>
+      </c>
+      <c r="R212" t="s">
+        <v>28</v>
+      </c>
+      <c r="S212">
+        <v>107.033676083138</v>
+      </c>
+      <c r="T212">
+        <v>39.1707303340146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>56</v>
       </c>
@@ -16423,8 +16566,23 @@
       <c r="N213" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P213" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>27</v>
+      </c>
+      <c r="R213" t="s">
+        <v>28</v>
+      </c>
+      <c r="S213">
+        <v>205.98624739039599</v>
+      </c>
+      <c r="T213">
+        <v>34.135042998264801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>58</v>
       </c>
@@ -16468,8 +16626,23 @@
       <c r="N214" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P214" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>34</v>
+      </c>
+      <c r="R214" t="s">
+        <v>28</v>
+      </c>
+      <c r="S214">
+        <v>127.65697783768501</v>
+      </c>
+      <c r="T214">
+        <v>53.6537207047677</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>61</v>
       </c>
@@ -16513,8 +16686,23 @@
       <c r="N215" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P215" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>27</v>
+      </c>
+      <c r="R215" t="s">
+        <v>28</v>
+      </c>
+      <c r="S215">
+        <v>89.033422459893004</v>
+      </c>
+      <c r="T215">
+        <v>76.174107157987393</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>63</v>
       </c>
@@ -16558,8 +16746,23 @@
       <c r="N216" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P216" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>27</v>
+      </c>
+      <c r="R216" t="s">
+        <v>28</v>
+      </c>
+      <c r="S216">
+        <v>157.391323888968</v>
+      </c>
+      <c r="T216">
+        <v>57.658865874038298</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>66</v>
       </c>
@@ -16603,8 +16806,23 @@
       <c r="N217" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P217" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>27</v>
+      </c>
+      <c r="R217" t="s">
+        <v>28</v>
+      </c>
+      <c r="S217">
+        <v>139.83798888888799</v>
+      </c>
+      <c r="T217">
+        <v>64.329384143409897</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>68</v>
       </c>
@@ -16648,8 +16866,23 @@
       <c r="N218" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P218" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>27</v>
+      </c>
+      <c r="R218" t="s">
+        <v>28</v>
+      </c>
+      <c r="S218">
+        <v>152.93182330827</v>
+      </c>
+      <c r="T218">
+        <v>38.489766337742601</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>70</v>
       </c>
@@ -16693,8 +16926,23 @@
       <c r="N219" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P219" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>27</v>
+      </c>
+      <c r="R219" t="s">
+        <v>28</v>
+      </c>
+      <c r="S219">
+        <v>169.40514638648699</v>
+      </c>
+      <c r="T219">
+        <v>55.925991585376103</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>73</v>
       </c>
@@ -16738,8 +16986,23 @@
       <c r="N220" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P220" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>27</v>
+      </c>
+      <c r="R220" t="s">
+        <v>28</v>
+      </c>
+      <c r="S220">
+        <v>117.669945701995</v>
+      </c>
+      <c r="T220">
+        <v>34.864737574694303</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>75</v>
       </c>
@@ -16783,8 +17046,23 @@
       <c r="N221" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P221" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>34</v>
+      </c>
+      <c r="R221" t="s">
+        <v>28</v>
+      </c>
+      <c r="S221">
+        <v>168.02913116790899</v>
+      </c>
+      <c r="T221">
+        <v>50.206148800035997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>77</v>
       </c>
@@ -16828,8 +17106,23 @@
       <c r="N222" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P222" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>27</v>
+      </c>
+      <c r="R222" t="s">
+        <v>28</v>
+      </c>
+      <c r="S222">
+        <v>156.49380952380901</v>
+      </c>
+      <c r="T222">
+        <v>33.351149283763803</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>79</v>
       </c>
@@ -16873,8 +17166,23 @@
       <c r="N223" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P223" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>27</v>
+      </c>
+      <c r="R223" t="s">
+        <v>28</v>
+      </c>
+      <c r="S223">
+        <v>113.05355679156899</v>
+      </c>
+      <c r="T223">
+        <v>51.556878883708698</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>81</v>
       </c>
@@ -16918,8 +17226,23 @@
       <c r="N224" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P224" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>27</v>
+      </c>
+      <c r="R224" t="s">
+        <v>28</v>
+      </c>
+      <c r="S224">
+        <v>180.21099604800901</v>
+      </c>
+      <c r="T224">
+        <v>66.537204907219802</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>83</v>
       </c>
@@ -16963,8 +17286,23 @@
       <c r="N225" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P225" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>27</v>
+      </c>
+      <c r="R225" t="s">
+        <v>28</v>
+      </c>
+      <c r="S225">
+        <v>103.36622877634601</v>
+      </c>
+      <c r="T225">
+        <v>53.4884922464284</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>85</v>
       </c>
@@ -17008,8 +17346,23 @@
       <c r="N226" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P226" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>27</v>
+      </c>
+      <c r="R226" t="s">
+        <v>28</v>
+      </c>
+      <c r="S226">
+        <v>80.9199612119438</v>
+      </c>
+      <c r="T226">
+        <v>47.6107278583466</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>87</v>
       </c>
@@ -17053,8 +17406,23 @@
       <c r="N227" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P227" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>27</v>
+      </c>
+      <c r="R227" t="s">
+        <v>28</v>
+      </c>
+      <c r="S227">
+        <v>67.717740046838401</v>
+      </c>
+      <c r="T227">
+        <v>51.431288953946698</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>89</v>
       </c>
@@ -17098,8 +17466,23 @@
       <c r="N228" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P228" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>34</v>
+      </c>
+      <c r="R228" t="s">
+        <v>28</v>
+      </c>
+      <c r="S228">
+        <v>139.39466115339499</v>
+      </c>
+      <c r="T228">
+        <v>61.041442377455397</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -17143,8 +17526,23 @@
       <c r="N229" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P229" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>27</v>
+      </c>
+      <c r="R229" t="s">
+        <v>28</v>
+      </c>
+      <c r="S229">
+        <v>125.222683694379</v>
+      </c>
+      <c r="T229">
+        <v>49.437336496691898</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>93</v>
       </c>
@@ -17188,8 +17586,23 @@
       <c r="N230" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P230" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>34</v>
+      </c>
+      <c r="R230" t="s">
+        <v>28</v>
+      </c>
+      <c r="S230">
+        <v>109.03662543911</v>
+      </c>
+      <c r="T230">
+        <v>47.179197050575802</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>95</v>
       </c>
@@ -17233,8 +17646,23 @@
       <c r="N231" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P231" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>27</v>
+      </c>
+      <c r="R231" t="s">
+        <v>28</v>
+      </c>
+      <c r="S231">
+        <v>66.665657933255204</v>
+      </c>
+      <c r="T231">
+        <v>49.8256995176868</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>97</v>
       </c>
@@ -17278,8 +17706,23 @@
       <c r="N232" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P232" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>27</v>
+      </c>
+      <c r="R232" t="s">
+        <v>28</v>
+      </c>
+      <c r="S232">
+        <v>76.261716920374695</v>
+      </c>
+      <c r="T232">
+        <v>36.937976119619698</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>99</v>
       </c>
@@ -17323,8 +17766,23 @@
       <c r="N233" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P233" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>27</v>
+      </c>
+      <c r="R233" t="s">
+        <v>28</v>
+      </c>
+      <c r="S233">
+        <v>124.744620901639</v>
+      </c>
+      <c r="T233">
+        <v>46.653009696618803</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>103</v>
       </c>
@@ -17368,8 +17826,23 @@
       <c r="N234" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P234" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>27</v>
+      </c>
+      <c r="R234" t="s">
+        <v>28</v>
+      </c>
+      <c r="S234">
+        <v>65.950900175643994</v>
+      </c>
+      <c r="T234">
+        <v>38.693399095873502</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>105</v>
       </c>
@@ -17413,8 +17886,23 @@
       <c r="N235" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P235" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>27</v>
+      </c>
+      <c r="R235" t="s">
+        <v>28</v>
+      </c>
+      <c r="S235">
+        <v>94.188133050351198</v>
+      </c>
+      <c r="T235">
+        <v>46.077876110855897</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>107</v>
       </c>
@@ -17458,8 +17946,23 @@
       <c r="N236" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P236" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>27</v>
+      </c>
+      <c r="R236" t="s">
+        <v>109</v>
+      </c>
+      <c r="S236">
+        <v>172.27279347189599</v>
+      </c>
+      <c r="T236">
+        <v>36.095592425821501</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>110</v>
       </c>
@@ -17503,8 +18006,23 @@
       <c r="N237" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P237" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>55</v>
+      </c>
+      <c r="R237" t="s">
+        <v>28</v>
+      </c>
+      <c r="S237">
+        <v>116.134393296252</v>
+      </c>
+      <c r="T237">
+        <v>43.783097194324903</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>112</v>
       </c>
@@ -17548,8 +18066,23 @@
       <c r="N238" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P238" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>34</v>
+      </c>
+      <c r="R238" t="s">
+        <v>115</v>
+      </c>
+      <c r="S238">
+        <v>94.009422238372096</v>
+      </c>
+      <c r="T238">
+        <v>59.111631568337202</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>118</v>
       </c>
@@ -17593,8 +18126,23 @@
       <c r="N239" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P239" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>27</v>
+      </c>
+      <c r="R239" t="s">
+        <v>28</v>
+      </c>
+      <c r="S239">
+        <v>75.5457463235294</v>
+      </c>
+      <c r="T239">
+        <v>54.663164876258001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>120</v>
       </c>
@@ -17638,8 +18186,23 @@
       <c r="N240" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P240" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>27</v>
+      </c>
+      <c r="R240" t="s">
+        <v>28</v>
+      </c>
+      <c r="S240">
+        <v>198.26525691105701</v>
+      </c>
+      <c r="T240">
+        <v>63.700933258954599</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>122</v>
       </c>
@@ -17683,8 +18246,23 @@
       <c r="N241" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P241" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>34</v>
+      </c>
+      <c r="R241" t="s">
+        <v>28</v>
+      </c>
+      <c r="S241">
+        <v>81.397720286885203</v>
+      </c>
+      <c r="T241">
+        <v>51.7681630854836</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>124</v>
       </c>
@@ -17728,8 +18306,23 @@
       <c r="N242" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P242" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>27</v>
+      </c>
+      <c r="R242" t="s">
+        <v>28</v>
+      </c>
+      <c r="S242">
+        <v>93.965617681498799</v>
+      </c>
+      <c r="T242">
+        <v>51.936629667259403</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>127</v>
       </c>
@@ -17773,8 +18366,23 @@
       <c r="N243" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P243" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>34</v>
+      </c>
+      <c r="R243" t="s">
+        <v>28</v>
+      </c>
+      <c r="S243">
+        <v>151.55706967213101</v>
+      </c>
+      <c r="T243">
+        <v>56.429950834464897</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>131</v>
       </c>
@@ -17818,8 +18426,23 @@
       <c r="N244" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P244" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>27</v>
+      </c>
+      <c r="R244" t="s">
+        <v>28</v>
+      </c>
+      <c r="S244">
+        <v>115.34566855641501</v>
+      </c>
+      <c r="T244">
+        <v>59.872481016979997</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>133</v>
       </c>
@@ -17863,8 +18486,23 @@
       <c r="N245" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P245" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>27</v>
+      </c>
+      <c r="R245" t="s">
+        <v>28</v>
+      </c>
+      <c r="S245">
+        <v>162.571388319672</v>
+      </c>
+      <c r="T245">
+        <v>56.425901136425701</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>135</v>
       </c>
@@ -17908,8 +18546,23 @@
       <c r="N246" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P246" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>27</v>
+      </c>
+      <c r="R246" t="s">
+        <v>28</v>
+      </c>
+      <c r="S246">
+        <v>185.918215749414</v>
+      </c>
+      <c r="T246">
+        <v>57.531419990814499</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>137</v>
       </c>
@@ -17953,8 +18606,23 @@
       <c r="N247" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P247" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>34</v>
+      </c>
+      <c r="R247" t="s">
+        <v>28</v>
+      </c>
+      <c r="S247">
+        <v>124.636881586651</v>
+      </c>
+      <c r="T247">
+        <v>48.047364900723601</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>139</v>
       </c>
@@ -17998,8 +18666,23 @@
       <c r="N248" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P248" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>27</v>
+      </c>
+      <c r="R248" t="s">
+        <v>28</v>
+      </c>
+      <c r="S248">
+        <v>114.184000880281</v>
+      </c>
+      <c r="T248">
+        <v>51.696255654763398</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>141</v>
       </c>
@@ -18043,8 +18726,23 @@
       <c r="N249" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P249" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>55</v>
+      </c>
+      <c r="R249" t="s">
+        <v>28</v>
+      </c>
+      <c r="S249">
+        <v>144.22442183840749</v>
+      </c>
+      <c r="T249">
+        <v>70.86776534565027</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>144</v>
       </c>
@@ -18088,8 +18786,23 @@
       <c r="N250" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P250" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>55</v>
+      </c>
+      <c r="R250" t="s">
+        <v>28</v>
+      </c>
+      <c r="S250">
+        <v>110.8899794600939</v>
+      </c>
+      <c r="T250">
+        <v>57.633212777389033</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>146</v>
       </c>
@@ -18133,8 +18846,23 @@
       <c r="N251" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P251" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>27</v>
+      </c>
+      <c r="R251" t="s">
+        <v>28</v>
+      </c>
+      <c r="S251">
+        <v>99.261471225247519</v>
+      </c>
+      <c r="T251">
+        <v>49.023925197174663</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>148</v>
       </c>
@@ -18178,8 +18906,23 @@
       <c r="N252" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P252" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>34</v>
+      </c>
+      <c r="R252" t="s">
+        <v>28</v>
+      </c>
+      <c r="S252">
+        <v>116.36527005269321</v>
+      </c>
+      <c r="T252">
+        <v>33.250187305882882</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>150</v>
       </c>
@@ -18223,8 +18966,23 @@
       <c r="N253" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P253" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>34</v>
+      </c>
+      <c r="R253" t="s">
+        <v>28</v>
+      </c>
+      <c r="S253">
+        <v>91.554440130260517</v>
+      </c>
+      <c r="T253">
+        <v>38.171659450496932</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>152</v>
       </c>
@@ -18268,8 +19026,23 @@
       <c r="N254" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P254" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>27</v>
+      </c>
+      <c r="R254" t="s">
+        <v>28</v>
+      </c>
+      <c r="S254">
+        <v>146.00552180913351</v>
+      </c>
+      <c r="T254">
+        <v>51.362551757072673</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>154</v>
       </c>
@@ -18313,8 +19086,23 @@
       <c r="N255" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P255" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>55</v>
+      </c>
+      <c r="R255" t="s">
+        <v>28</v>
+      </c>
+      <c r="S255">
+        <v>144.66060450819671</v>
+      </c>
+      <c r="T255">
+        <v>69.845057125608079</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>156</v>
       </c>
@@ -18358,8 +19146,23 @@
       <c r="N256" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P256" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>55</v>
+      </c>
+      <c r="R256" t="s">
+        <v>28</v>
+      </c>
+      <c r="S256">
+        <v>167.6185450819672</v>
+      </c>
+      <c r="T256">
+        <v>59.064837288666922</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>158</v>
       </c>
@@ -18403,8 +19206,23 @@
       <c r="N257" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P257" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>55</v>
+      </c>
+      <c r="R257" t="s">
+        <v>28</v>
+      </c>
+      <c r="S257">
+        <v>126.0956454918033</v>
+      </c>
+      <c r="T257">
+        <v>50.52343697195812</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>160</v>
       </c>
@@ -18448,8 +19266,23 @@
       <c r="N258" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P258" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>55</v>
+      </c>
+      <c r="R258" t="s">
+        <v>28</v>
+      </c>
+      <c r="S258">
+        <v>184.65232728337239</v>
+      </c>
+      <c r="T258">
+        <v>55.455625624614868</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>163</v>
       </c>
@@ -18493,8 +19326,23 @@
       <c r="N259" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P259" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>165</v>
+      </c>
+      <c r="R259" t="s">
+        <v>28</v>
+      </c>
+      <c r="S259">
+        <v>129.09213992974239</v>
+      </c>
+      <c r="T259">
+        <v>33.827634398387438</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>166</v>
       </c>
@@ -18538,8 +19386,23 @@
       <c r="N260" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P260" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>34</v>
+      </c>
+      <c r="R260" t="s">
+        <v>28</v>
+      </c>
+      <c r="S260">
+        <v>120.1855093676815</v>
+      </c>
+      <c r="T260">
+        <v>64.211838240569719</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>168</v>
       </c>
@@ -18583,8 +19446,23 @@
       <c r="N261" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P261" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>27</v>
+      </c>
+      <c r="R261" t="s">
+        <v>28</v>
+      </c>
+      <c r="S261">
+        <v>120.18955649882901</v>
+      </c>
+      <c r="T261">
+        <v>71.252682903824379</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>170</v>
       </c>
@@ -18628,8 +19506,23 @@
       <c r="N262" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P262" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>27</v>
+      </c>
+      <c r="R262" t="s">
+        <v>28</v>
+      </c>
+      <c r="S262">
+        <v>147.4649856321839</v>
+      </c>
+      <c r="T262">
+        <v>78.963044805409609</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>172</v>
       </c>
@@ -18673,8 +19566,23 @@
       <c r="N263" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P263" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>27</v>
+      </c>
+      <c r="R263" t="s">
+        <v>28</v>
+      </c>
+      <c r="S263">
+        <v>103.68580210772831</v>
+      </c>
+      <c r="T263">
+        <v>58.105264900056177</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>174</v>
       </c>
@@ -18718,8 +19626,23 @@
       <c r="N264" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P264" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>34</v>
+      </c>
+      <c r="R264" t="s">
+        <v>28</v>
+      </c>
+      <c r="S264">
+        <v>115.7401633522727</v>
+      </c>
+      <c r="T264">
+        <v>55.729837661092851</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>176</v>
       </c>
@@ -18763,8 +19686,23 @@
       <c r="N265" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P265" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>34</v>
+      </c>
+      <c r="R265" t="s">
+        <v>28</v>
+      </c>
+      <c r="S265">
+        <v>119.6186298076923</v>
+      </c>
+      <c r="T265">
+        <v>53.729688628822231</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>178</v>
       </c>
@@ -18808,8 +19746,23 @@
       <c r="N266" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P266" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>55</v>
+      </c>
+      <c r="R266" t="s">
+        <v>28</v>
+      </c>
+      <c r="S266">
+        <v>124.5344791666667</v>
+      </c>
+      <c r="T266">
+        <v>66.09106651532754</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>180</v>
       </c>
@@ -18853,8 +19806,23 @@
       <c r="N267" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P267" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>27</v>
+      </c>
+      <c r="R267" t="s">
+        <v>28</v>
+      </c>
+      <c r="S267">
+        <v>71.400322014051525</v>
+      </c>
+      <c r="T267">
+        <v>42.141337693411423</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>182</v>
       </c>
@@ -18898,8 +19866,23 @@
       <c r="N268" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P268" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>55</v>
+      </c>
+      <c r="R268" t="s">
+        <v>28</v>
+      </c>
+      <c r="S268">
+        <v>122.03624853629979</v>
+      </c>
+      <c r="T268">
+        <v>65.682937858323996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>184</v>
       </c>
@@ -18943,8 +19926,23 @@
       <c r="N269" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P269" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>27</v>
+      </c>
+      <c r="R269" t="s">
+        <v>28</v>
+      </c>
+      <c r="S269">
+        <v>94.446128512880563</v>
+      </c>
+      <c r="T269">
+        <v>39.260277945280563</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>186</v>
       </c>
@@ -18988,8 +19986,23 @@
       <c r="N270" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P270" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>55</v>
+      </c>
+      <c r="R270" t="s">
+        <v>28</v>
+      </c>
+      <c r="S270">
+        <v>135.77519139755009</v>
+      </c>
+      <c r="T270">
+        <v>47.903441767662052</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>188</v>
       </c>
@@ -19033,8 +20046,23 @@
       <c r="N271" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P271" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>55</v>
+      </c>
+      <c r="R271" t="s">
+        <v>28</v>
+      </c>
+      <c r="S271">
+        <v>123.88723224765261</v>
+      </c>
+      <c r="T271">
+        <v>59.114889859144249</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>190</v>
       </c>
@@ -19078,8 +20106,23 @@
       <c r="N272" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P272" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>192</v>
+      </c>
+      <c r="R272" t="s">
+        <v>28</v>
+      </c>
+      <c r="S272">
+        <v>84.177243120608892</v>
+      </c>
+      <c r="T272">
+        <v>41.870356511666976</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>193</v>
       </c>
@@ -19123,8 +20166,23 @@
       <c r="N273" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P273" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>165</v>
+      </c>
+      <c r="R273" t="s">
+        <v>28</v>
+      </c>
+      <c r="S273">
+        <v>134.04213261124119</v>
+      </c>
+      <c r="T273">
+        <v>78.500970118643082</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>195</v>
       </c>
@@ -19168,8 +20226,23 @@
       <c r="N274" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P274" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>27</v>
+      </c>
+      <c r="R274" t="s">
+        <v>28</v>
+      </c>
+      <c r="S274">
+        <v>104.84971534653469</v>
+      </c>
+      <c r="T274">
+        <v>63.198524608630798</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>197</v>
       </c>
@@ -19213,8 +20286,23 @@
       <c r="N275" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P275" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>55</v>
+      </c>
+      <c r="R275" t="s">
+        <v>28</v>
+      </c>
+      <c r="S275">
+        <v>112.17260685011711</v>
+      </c>
+      <c r="T275">
+        <v>65.050116261093891</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>199</v>
       </c>
@@ -19258,8 +20346,23 @@
       <c r="N276" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P276" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>55</v>
+      </c>
+      <c r="R276" t="s">
+        <v>28</v>
+      </c>
+      <c r="S276">
+        <v>91.061457113583131</v>
+      </c>
+      <c r="T276">
+        <v>57.851683240853482</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>201</v>
       </c>
@@ -19303,8 +20406,23 @@
       <c r="N277" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P277" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>27</v>
+      </c>
+      <c r="R277" t="s">
+        <v>28</v>
+      </c>
+      <c r="S277">
+        <v>96.571210937499998</v>
+      </c>
+      <c r="T277">
+        <v>54.814894411366339</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>203</v>
       </c>
@@ -19348,8 +20466,23 @@
       <c r="N278" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P278" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>165</v>
+      </c>
+      <c r="R278" t="s">
+        <v>28</v>
+      </c>
+      <c r="S278">
+        <v>137.98950892857141</v>
+      </c>
+      <c r="T278">
+        <v>50.268773767017478</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>205</v>
       </c>
@@ -19393,8 +20526,23 @@
       <c r="N279" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P279" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>55</v>
+      </c>
+      <c r="R279" t="s">
+        <v>28</v>
+      </c>
+      <c r="S279">
+        <v>110.8503988583138</v>
+      </c>
+      <c r="T279">
+        <v>50.908873054917613</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>207</v>
       </c>
@@ -19438,8 +20586,23 @@
       <c r="N280" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P280" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>34</v>
+      </c>
+      <c r="R280" t="s">
+        <v>28</v>
+      </c>
+      <c r="S280">
+        <v>137.0669027453271</v>
+      </c>
+      <c r="T280">
+        <v>41.814593501090549</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>209</v>
       </c>
@@ -19483,8 +20646,23 @@
       <c r="N281" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P281" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>211</v>
+      </c>
+      <c r="R281" t="s">
+        <v>28</v>
+      </c>
+      <c r="S281">
+        <v>162.5913134765625</v>
+      </c>
+      <c r="T281">
+        <v>71.707954876525719</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>212</v>
       </c>
@@ -19528,8 +20706,23 @@
       <c r="N282" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P282" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>27</v>
+      </c>
+      <c r="R282" t="s">
+        <v>28</v>
+      </c>
+      <c r="S282">
+        <v>160.57591847189701</v>
+      </c>
+      <c r="T282">
+        <v>67.126623956359609</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>214</v>
       </c>
@@ -19573,8 +20766,23 @@
       <c r="N283" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P283" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>34</v>
+      </c>
+      <c r="R283" t="s">
+        <v>28</v>
+      </c>
+      <c r="S283">
+        <v>150.688595467033</v>
+      </c>
+      <c r="T283">
+        <v>77.319355684657552</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>216</v>
       </c>
@@ -19618,8 +20826,23 @@
       <c r="N284" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P284" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>27</v>
+      </c>
+      <c r="R284" t="s">
+        <v>28</v>
+      </c>
+      <c r="S284">
+        <v>125.56041789504719</v>
+      </c>
+      <c r="T284">
+        <v>56.640507651037503</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>218</v>
       </c>
@@ -19663,8 +20886,23 @@
       <c r="N285" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P285" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>34</v>
+      </c>
+      <c r="R285" t="s">
+        <v>28</v>
+      </c>
+      <c r="S285">
+        <v>95.594719701405154</v>
+      </c>
+      <c r="T285">
+        <v>55.903625300426327</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>220</v>
       </c>
@@ -19708,8 +20946,23 @@
       <c r="N286" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P286" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>55</v>
+      </c>
+      <c r="R286" t="s">
+        <v>28</v>
+      </c>
+      <c r="S286">
+        <v>127.4423220198675</v>
+      </c>
+      <c r="T286">
+        <v>40.251347663461651</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>222</v>
       </c>
@@ -19753,8 +21006,23 @@
       <c r="N287" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P287" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>34</v>
+      </c>
+      <c r="R287" t="s">
+        <v>28</v>
+      </c>
+      <c r="S287">
+        <v>127.62365451388889</v>
+      </c>
+      <c r="T287">
+        <v>70.297014009835848</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>224</v>
       </c>
@@ -19798,8 +21066,23 @@
       <c r="N288" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P288" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>55</v>
+      </c>
+      <c r="R288" t="s">
+        <v>28</v>
+      </c>
+      <c r="S288">
+        <v>147.052861328125</v>
+      </c>
+      <c r="T288">
+        <v>75.253480199168422</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>226</v>
       </c>
@@ -19843,8 +21126,23 @@
       <c r="N289" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P289" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>34</v>
+      </c>
+      <c r="R289" t="s">
+        <v>28</v>
+      </c>
+      <c r="S289">
+        <v>164.66662763466039</v>
+      </c>
+      <c r="T289">
+        <v>79.802971518853312</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>228</v>
       </c>
@@ -19888,8 +21186,23 @@
       <c r="N290" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P290" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>34</v>
+      </c>
+      <c r="R290" t="s">
+        <v>28</v>
+      </c>
+      <c r="S290">
+        <v>111.1002398081535</v>
+      </c>
+      <c r="T290">
+        <v>39.689332700899207</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>230</v>
       </c>
@@ -19933,8 +21246,23 @@
       <c r="N291" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P291" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>34</v>
+      </c>
+      <c r="R291" t="s">
+        <v>28</v>
+      </c>
+      <c r="S291">
+        <v>165.16511029411771</v>
+      </c>
+      <c r="T291">
+        <v>63.632976290201483</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>232</v>
       </c>
@@ -19978,8 +21306,23 @@
       <c r="N292" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P292" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>55</v>
+      </c>
+      <c r="R292" t="s">
+        <v>28</v>
+      </c>
+      <c r="S292">
+        <v>182.71854138283379</v>
+      </c>
+      <c r="T292">
+        <v>83.283379091513368</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>234</v>
       </c>
@@ -20023,8 +21366,23 @@
       <c r="N293" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P293" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>55</v>
+      </c>
+      <c r="R293" t="s">
+        <v>28</v>
+      </c>
+      <c r="S293">
+        <v>104.3495616007194</v>
+      </c>
+      <c r="T293">
+        <v>49.950428014249162</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>236</v>
       </c>
@@ -20068,8 +21426,23 @@
       <c r="N294" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P294" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>34</v>
+      </c>
+      <c r="R294" t="s">
+        <v>28</v>
+      </c>
+      <c r="S294">
+        <v>122.0691373697917</v>
+      </c>
+      <c r="T294">
+        <v>40.144374583803113</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>238</v>
       </c>
@@ -20113,8 +21486,23 @@
       <c r="N295" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P295" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>34</v>
+      </c>
+      <c r="R295" t="s">
+        <v>28</v>
+      </c>
+      <c r="S295">
+        <v>111.8897943501171</v>
+      </c>
+      <c r="T295">
+        <v>54.615766973821707</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>240</v>
       </c>
@@ -20158,8 +21546,23 @@
       <c r="N296" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P296" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>55</v>
+      </c>
+      <c r="R296" t="s">
+        <v>28</v>
+      </c>
+      <c r="S296">
+        <v>115.1775541569087</v>
+      </c>
+      <c r="T296">
+        <v>46.626264528680593</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>242</v>
       </c>
@@ -20203,8 +21606,23 @@
       <c r="N297" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P297" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>34</v>
+      </c>
+      <c r="R297" t="s">
+        <v>28</v>
+      </c>
+      <c r="S297">
+        <v>114.01449429156909</v>
+      </c>
+      <c r="T297">
+        <v>60.005677811143869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>244</v>
       </c>
@@ -20248,8 +21666,23 @@
       <c r="N298" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P298" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>27</v>
+      </c>
+      <c r="R298" t="s">
+        <v>28</v>
+      </c>
+      <c r="S298">
+        <v>97.227942037470726</v>
+      </c>
+      <c r="T298">
+        <v>35.680465563724198</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>246</v>
       </c>
@@ -20293,8 +21726,23 @@
       <c r="N299" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P299" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>55</v>
+      </c>
+      <c r="R299" t="s">
+        <v>28</v>
+      </c>
+      <c r="S299">
+        <v>145.84650907494151</v>
+      </c>
+      <c r="T299">
+        <v>56.738612393145957</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>249</v>
       </c>
@@ -20338,8 +21786,23 @@
       <c r="N300" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P300" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>34</v>
+      </c>
+      <c r="R300" t="s">
+        <v>28</v>
+      </c>
+      <c r="S300">
+        <v>93.894712382903975</v>
+      </c>
+      <c r="T300">
+        <v>57.677074369744368</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>251</v>
       </c>
@@ -20383,8 +21846,23 @@
       <c r="N301" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P301" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>34</v>
+      </c>
+      <c r="R301" t="s">
+        <v>28</v>
+      </c>
+      <c r="S301">
+        <v>112.0292567172897</v>
+      </c>
+      <c r="T301">
+        <v>35.013784438615573</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>253</v>
       </c>
@@ -20428,8 +21906,23 @@
       <c r="N302" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P302" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>27</v>
+      </c>
+      <c r="R302" t="s">
+        <v>28</v>
+      </c>
+      <c r="S302">
+        <v>185.35187825520831</v>
+      </c>
+      <c r="T302">
+        <v>77.285982799310446</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>255</v>
       </c>
@@ -20473,8 +21966,23 @@
       <c r="N303" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P303" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>27</v>
+      </c>
+      <c r="R303" t="s">
+        <v>28</v>
+      </c>
+      <c r="S303">
+        <v>114.4706470588235</v>
+      </c>
+      <c r="T303">
+        <v>42.035212686446357</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>257</v>
       </c>
@@ -20518,8 +22026,23 @@
       <c r="N304" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P304" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>55</v>
+      </c>
+      <c r="R304" t="s">
+        <v>28</v>
+      </c>
+      <c r="S304">
+        <v>90.673532640515219</v>
+      </c>
+      <c r="T304">
+        <v>39.42429928245452</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>259</v>
       </c>
@@ -20563,8 +22086,23 @@
       <c r="N305" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P305" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>27</v>
+      </c>
+      <c r="R305" t="s">
+        <v>28</v>
+      </c>
+      <c r="S305">
+        <v>87.949981703747071</v>
+      </c>
+      <c r="T305">
+        <v>43.586623288118552</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>261</v>
       </c>
@@ -20608,8 +22146,23 @@
       <c r="N306" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P306" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>27</v>
+      </c>
+      <c r="R306" t="s">
+        <v>28</v>
+      </c>
+      <c r="S306">
+        <v>109.9413788056206</v>
+      </c>
+      <c r="T306">
+        <v>23.940148968568121</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>263</v>
       </c>
@@ -20653,8 +22206,23 @@
       <c r="N307" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P307" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>55</v>
+      </c>
+      <c r="R307" t="s">
+        <v>28</v>
+      </c>
+      <c r="S307">
+        <v>112.8289117388759</v>
+      </c>
+      <c r="T307">
+        <v>52.088926526887377</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>265</v>
       </c>
@@ -20698,8 +22266,23 @@
       <c r="N308" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P308" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>55</v>
+      </c>
+      <c r="R308" t="s">
+        <v>28</v>
+      </c>
+      <c r="S308">
+        <v>107.68810505319151</v>
+      </c>
+      <c r="T308">
+        <v>43.283914158825269</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>267</v>
       </c>
@@ -20743,8 +22326,23 @@
       <c r="N309" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P309" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>34</v>
+      </c>
+      <c r="R309" t="s">
+        <v>28</v>
+      </c>
+      <c r="S309">
+        <v>106.6872292154567</v>
+      </c>
+      <c r="T309">
+        <v>58.060025523097103</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>269</v>
       </c>
@@ -20788,8 +22386,23 @@
       <c r="N310" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P310" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>55</v>
+      </c>
+      <c r="R310" t="s">
+        <v>28</v>
+      </c>
+      <c r="S310">
+        <v>108.2551412470726</v>
+      </c>
+      <c r="T310">
+        <v>37.210441418351927</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>271</v>
       </c>
@@ -20833,8 +22446,23 @@
       <c r="N311" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P311" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>34</v>
+      </c>
+      <c r="R311" t="s">
+        <v>115</v>
+      </c>
+      <c r="S311">
+        <v>120.6953198185012</v>
+      </c>
+      <c r="T311">
+        <v>39.205591086623599</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>273</v>
       </c>
@@ -20878,8 +22506,23 @@
       <c r="N312" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P312" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>55</v>
+      </c>
+      <c r="R312" t="s">
+        <v>28</v>
+      </c>
+      <c r="S312">
+        <v>92.47294830607477</v>
+      </c>
+      <c r="T312">
+        <v>63.071327290391558</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>275</v>
       </c>
@@ -20923,8 +22566,23 @@
       <c r="N313" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P313" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>34</v>
+      </c>
+      <c r="R313" t="s">
+        <v>28</v>
+      </c>
+      <c r="S313">
+        <v>128.18840711805561</v>
+      </c>
+      <c r="T313">
+        <v>45.163191752218893</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>277</v>
       </c>
@@ -20968,8 +22626,23 @@
       <c r="N314" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P314" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>55</v>
+      </c>
+      <c r="R314" t="s">
+        <v>28</v>
+      </c>
+      <c r="S314">
+        <v>131.07764625420879</v>
+      </c>
+      <c r="T314">
+        <v>43.020247733882613</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>279</v>
       </c>
@@ -21013,8 +22686,23 @@
       <c r="N315" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P315" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>34</v>
+      </c>
+      <c r="R315" t="s">
+        <v>28</v>
+      </c>
+      <c r="S315">
+        <v>93.306357646137783</v>
+      </c>
+      <c r="T315">
+        <v>52.284699428156237</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>281</v>
       </c>
@@ -21058,8 +22746,23 @@
       <c r="N316" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P316" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>27</v>
+      </c>
+      <c r="R316" t="s">
+        <v>28</v>
+      </c>
+      <c r="S316">
+        <v>135.2234958022388</v>
+      </c>
+      <c r="T316">
+        <v>40.636067297547761</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>283</v>
       </c>
@@ -21103,8 +22806,23 @@
       <c r="N317" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P317" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>211</v>
+      </c>
+      <c r="R317" t="s">
+        <v>28</v>
+      </c>
+      <c r="S317">
+        <v>113.6798202366505</v>
+      </c>
+      <c r="T317">
+        <v>38.545468893328952</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>285</v>
       </c>
@@ -21148,8 +22866,23 @@
       <c r="N318" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P318" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>27</v>
+      </c>
+      <c r="R318" t="s">
+        <v>28</v>
+      </c>
+      <c r="S318">
+        <v>112.53668855676329</v>
+      </c>
+      <c r="T318">
+        <v>31.420288871233421</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>287</v>
       </c>
@@ -21193,8 +22926,23 @@
       <c r="N319" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P319" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>55</v>
+      </c>
+      <c r="R319" t="s">
+        <v>28</v>
+      </c>
+      <c r="S319">
+        <v>152.91654638452911</v>
+      </c>
+      <c r="T319">
+        <v>65.55149320595369</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>289</v>
       </c>
@@ -21238,8 +22986,23 @@
       <c r="N320" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P320" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>27</v>
+      </c>
+      <c r="R320" t="s">
+        <v>28</v>
+      </c>
+      <c r="S320">
+        <v>85.37507834261838</v>
+      </c>
+      <c r="T320">
+        <v>32.756326608454863</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>291</v>
       </c>
@@ -21283,8 +23046,23 @@
       <c r="N321" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P321" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>34</v>
+      </c>
+      <c r="R321" t="s">
+        <v>28</v>
+      </c>
+      <c r="S321">
+        <v>123.13243925644031</v>
+      </c>
+      <c r="T321">
+        <v>47.595566887417817</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>293</v>
       </c>
@@ -21328,8 +23106,23 @@
       <c r="N322" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P322" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>34</v>
+      </c>
+      <c r="R322" t="s">
+        <v>28</v>
+      </c>
+      <c r="S322">
+        <v>114.7265402975133</v>
+      </c>
+      <c r="T322">
+        <v>47.632349715645198</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>295</v>
       </c>
@@ -21373,8 +23166,23 @@
       <c r="N323" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P323" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>55</v>
+      </c>
+      <c r="R323" t="s">
+        <v>28</v>
+      </c>
+      <c r="S323">
+        <v>108.8771992096019</v>
+      </c>
+      <c r="T323">
+        <v>46.262066645334379</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -21418,8 +23226,23 @@
       <c r="N324" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P324" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>55</v>
+      </c>
+      <c r="R324" t="s">
+        <v>28</v>
+      </c>
+      <c r="S324">
+        <v>139.75067274305559</v>
+      </c>
+      <c r="T324">
+        <v>63.880152372131107</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>299</v>
       </c>
@@ -21463,8 +23286,23 @@
       <c r="N325" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P325" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>55</v>
+      </c>
+      <c r="R325" t="s">
+        <v>28</v>
+      </c>
+      <c r="S325">
+        <v>166.76798155737711</v>
+      </c>
+      <c r="T325">
+        <v>55.916066940767173</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>301</v>
       </c>
@@ -21508,8 +23346,23 @@
       <c r="N326" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P326" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>34</v>
+      </c>
+      <c r="R326" t="s">
+        <v>28</v>
+      </c>
+      <c r="S326">
+        <v>119.40321648126459</v>
+      </c>
+      <c r="T326">
+        <v>46.242343192618819</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>303</v>
       </c>
@@ -21553,8 +23406,23 @@
       <c r="N327" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P327" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>55</v>
+      </c>
+      <c r="R327" t="s">
+        <v>28</v>
+      </c>
+      <c r="S327">
+        <v>138.62696046450941</v>
+      </c>
+      <c r="T327">
+        <v>48.385003015328543</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>305</v>
       </c>
@@ -21598,8 +23466,23 @@
       <c r="N328" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P328" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>55</v>
+      </c>
+      <c r="R328" t="s">
+        <v>28</v>
+      </c>
+      <c r="S328">
+        <v>109.5129459635417</v>
+      </c>
+      <c r="T328">
+        <v>63.647951479375124</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>307</v>
       </c>
@@ -21643,8 +23526,23 @@
       <c r="N329" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P329" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>55</v>
+      </c>
+      <c r="R329" t="s">
+        <v>28</v>
+      </c>
+      <c r="S329">
+        <v>117.71276346604211</v>
+      </c>
+      <c r="T329">
+        <v>34.518412525997128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>309</v>
       </c>
@@ -21688,8 +23586,23 @@
       <c r="N330" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P330" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>34</v>
+      </c>
+      <c r="R330" t="s">
+        <v>28</v>
+      </c>
+      <c r="S330">
+        <v>81.123236241217796</v>
+      </c>
+      <c r="T330">
+        <v>52.205165256840182</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>311</v>
       </c>
@@ -21733,8 +23646,23 @@
       <c r="N331" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P331" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>55</v>
+      </c>
+      <c r="R331" t="s">
+        <v>28</v>
+      </c>
+      <c r="S331">
+        <v>141.88753667840379</v>
+      </c>
+      <c r="T331">
+        <v>57.883771224961762</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>313</v>
       </c>
@@ -21778,8 +23706,23 @@
       <c r="N332" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P332" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>34</v>
+      </c>
+      <c r="R332" t="s">
+        <v>28</v>
+      </c>
+      <c r="S332">
+        <v>138.9338467789598</v>
+      </c>
+      <c r="T332">
+        <v>48.518946672695961</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>315</v>
       </c>
@@ -21823,8 +23766,23 @@
       <c r="N333" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P333" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>27</v>
+      </c>
+      <c r="R333" t="s">
+        <v>28</v>
+      </c>
+      <c r="S333">
+        <v>146.05606703747071</v>
+      </c>
+      <c r="T333">
+        <v>34.785475092465241</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>317</v>
       </c>
@@ -21868,8 +23826,23 @@
       <c r="N334" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P334" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>55</v>
+      </c>
+      <c r="R334" t="s">
+        <v>28</v>
+      </c>
+      <c r="S334">
+        <v>171.13056572014051</v>
+      </c>
+      <c r="T334">
+        <v>54.524623502297352</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>319</v>
       </c>
@@ -21913,8 +23886,23 @@
       <c r="N335" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P335" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>55</v>
+      </c>
+      <c r="R335" t="s">
+        <v>115</v>
+      </c>
+      <c r="S335">
+        <v>147.39905924479169</v>
+      </c>
+      <c r="T335">
+        <v>67.219540032448762</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>321</v>
       </c>
@@ -21958,8 +23946,23 @@
       <c r="N336" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P336" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>27</v>
+      </c>
+      <c r="R336" t="s">
+        <v>28</v>
+      </c>
+      <c r="S336">
+        <v>126.3290288348946</v>
+      </c>
+      <c r="T336">
+        <v>36.546492417779618</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>323</v>
       </c>
@@ -22003,8 +24006,23 @@
       <c r="N337" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P337" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>27</v>
+      </c>
+      <c r="R337" t="s">
+        <v>28</v>
+      </c>
+      <c r="S337">
+        <v>128.89837529274001</v>
+      </c>
+      <c r="T337">
+        <v>34.371421141789568</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>325</v>
       </c>
@@ -22048,8 +24066,23 @@
       <c r="N338" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P338" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>27</v>
+      </c>
+      <c r="R338" t="s">
+        <v>28</v>
+      </c>
+      <c r="S338">
+        <v>120.6852953767123</v>
+      </c>
+      <c r="T338">
+        <v>37.02241867608921</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>327</v>
       </c>
@@ -22093,8 +24126,23 @@
       <c r="N339" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P339" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>27</v>
+      </c>
+      <c r="R339" t="s">
+        <v>28</v>
+      </c>
+      <c r="S339">
+        <v>136.98480984669811</v>
+      </c>
+      <c r="T339">
+        <v>32.84003333175658</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>329</v>
       </c>
@@ -22138,8 +24186,23 @@
       <c r="N340" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P340" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>55</v>
+      </c>
+      <c r="R340" t="s">
+        <v>28</v>
+      </c>
+      <c r="S340">
+        <v>135.70696768372699</v>
+      </c>
+      <c r="T340">
+        <v>55.689789413572868</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>331</v>
       </c>
@@ -22183,8 +24246,23 @@
       <c r="N341" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P341" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>34</v>
+      </c>
+      <c r="R341" t="s">
+        <v>28</v>
+      </c>
+      <c r="S341">
+        <v>155.44620768229171</v>
+      </c>
+      <c r="T341">
+        <v>52.021344962188557</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>333</v>
       </c>
@@ -22228,8 +24306,23 @@
       <c r="N342" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P342" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>55</v>
+      </c>
+      <c r="R342" t="s">
+        <v>28</v>
+      </c>
+      <c r="S342">
+        <v>145.84650907494151</v>
+      </c>
+      <c r="T342">
+        <v>56.738612393145957</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>334</v>
       </c>
@@ -22273,8 +24366,23 @@
       <c r="N343" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P343" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>55</v>
+      </c>
+      <c r="R343" t="s">
+        <v>28</v>
+      </c>
+      <c r="S343">
+        <v>109.4860545960187</v>
+      </c>
+      <c r="T343">
+        <v>58.118842572454177</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>336</v>
       </c>
@@ -22318,8 +24426,23 @@
       <c r="N344" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P344" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>34</v>
+      </c>
+      <c r="R344" t="s">
+        <v>28</v>
+      </c>
+      <c r="S344">
+        <v>111.9120974824356</v>
+      </c>
+      <c r="T344">
+        <v>40.191954670121682</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>338</v>
       </c>
@@ -22363,8 +24486,23 @@
       <c r="N345" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P345" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>27</v>
+      </c>
+      <c r="R345" t="s">
+        <v>28</v>
+      </c>
+      <c r="S345">
+        <v>119.7019650175644</v>
+      </c>
+      <c r="T345">
+        <v>55.249196568522017</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>340</v>
       </c>
@@ -22408,8 +24546,23 @@
       <c r="N346" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P346" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>27</v>
+      </c>
+      <c r="R346" t="s">
+        <v>28</v>
+      </c>
+      <c r="S346">
+        <v>117.9765386450382</v>
+      </c>
+      <c r="T346">
+        <v>43.067036670618599</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>342</v>
       </c>
@@ -22453,8 +24606,23 @@
       <c r="N347" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P347" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>34</v>
+      </c>
+      <c r="R347" t="s">
+        <v>28</v>
+      </c>
+      <c r="S347">
+        <v>178.83320403981261</v>
+      </c>
+      <c r="T347">
+        <v>59.920132021905737</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>344</v>
       </c>
@@ -22498,8 +24666,23 @@
       <c r="N348" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P348" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>55</v>
+      </c>
+      <c r="R348" t="s">
+        <v>28</v>
+      </c>
+      <c r="S348">
+        <v>141.88753667840379</v>
+      </c>
+      <c r="T348">
+        <v>57.883771224961762</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>345</v>
       </c>
@@ -22543,8 +24726,23 @@
       <c r="N349" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P349" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>55</v>
+      </c>
+      <c r="R349" t="s">
+        <v>28</v>
+      </c>
+      <c r="S349">
+        <v>115.6988583138173</v>
+      </c>
+      <c r="T349">
+        <v>80.711954106842043</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -22588,8 +24786,23 @@
       <c r="N350" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P350" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>34</v>
+      </c>
+      <c r="R350" t="s">
+        <v>115</v>
+      </c>
+      <c r="S350">
+        <v>119.2844116784038</v>
+      </c>
+      <c r="T350">
+        <v>61.26571565914724</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -22633,8 +24846,23 @@
       <c r="N351" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P351" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>55</v>
+      </c>
+      <c r="R351" t="s">
+        <v>28</v>
+      </c>
+      <c r="S351">
+        <v>150.78614973653401</v>
+      </c>
+      <c r="T351">
+        <v>65.489582314539788</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -22678,8 +24906,23 @@
       <c r="N352" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P352" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>354</v>
+      </c>
+      <c r="R352" t="s">
+        <v>28</v>
+      </c>
+      <c r="S352">
+        <v>156.8594920960187</v>
+      </c>
+      <c r="T352">
+        <v>57.594522228978768</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -22723,8 +24966,23 @@
       <c r="N353" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P353" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>34</v>
+      </c>
+      <c r="R353" t="s">
+        <v>28</v>
+      </c>
+      <c r="S353">
+        <v>104.8809609192037</v>
+      </c>
+      <c r="T353">
+        <v>48.014464296880277</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -22768,8 +25026,23 @@
       <c r="N354" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P354" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>55</v>
+      </c>
+      <c r="R354" t="s">
+        <v>28</v>
+      </c>
+      <c r="S354">
+        <v>135.5001280737705</v>
+      </c>
+      <c r="T354">
+        <v>55.300763287920951</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>359</v>
       </c>
@@ -22813,8 +25086,23 @@
       <c r="N355" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P355" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>55</v>
+      </c>
+      <c r="R355" t="s">
+        <v>28</v>
+      </c>
+      <c r="S355">
+        <v>103.3054817708333</v>
+      </c>
+      <c r="T355">
+        <v>63.52104454534156</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>361</v>
       </c>
@@ -22858,8 +25146,23 @@
       <c r="N356" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P356" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>34</v>
+      </c>
+      <c r="R356" t="s">
+        <v>28</v>
+      </c>
+      <c r="S356">
+        <v>132.34987162558679</v>
+      </c>
+      <c r="T356">
+        <v>44.436518785543043</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -22903,8 +25206,23 @@
       <c r="N357" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P357" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>34</v>
+      </c>
+      <c r="R357" t="s">
+        <v>28</v>
+      </c>
+      <c r="S357">
+        <v>127.773349471831</v>
+      </c>
+      <c r="T357">
+        <v>49.575247230483413</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>365</v>
       </c>
@@ -22948,8 +25266,23 @@
       <c r="N358" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P358" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>55</v>
+      </c>
+      <c r="R358" t="s">
+        <v>28</v>
+      </c>
+      <c r="S358">
+        <v>103.3054817708333</v>
+      </c>
+      <c r="T358">
+        <v>63.52104454534156</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>366</v>
       </c>
@@ -22993,8 +25326,23 @@
       <c r="N359" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P359" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>55</v>
+      </c>
+      <c r="R359" t="s">
+        <v>28</v>
+      </c>
+      <c r="S359">
+        <v>134.27790364583331</v>
+      </c>
+      <c r="T359">
+        <v>59.790405931215581</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>368</v>
       </c>
@@ -23038,8 +25386,23 @@
       <c r="N360" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P360" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>34</v>
+      </c>
+      <c r="R360" t="s">
+        <v>28</v>
+      </c>
+      <c r="S360">
+        <v>123.4090318341122</v>
+      </c>
+      <c r="T360">
+        <v>35.552710484970419</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>370</v>
       </c>
@@ -23083,8 +25446,23 @@
       <c r="N361" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P361" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>34</v>
+      </c>
+      <c r="R361" t="s">
+        <v>28</v>
+      </c>
+      <c r="S361">
+        <v>151.29707259953159</v>
+      </c>
+      <c r="T361">
+        <v>59.561576706178457</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>372</v>
       </c>
@@ -23128,8 +25506,23 @@
       <c r="N362" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P362" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>55</v>
+      </c>
+      <c r="R362" t="s">
+        <v>28</v>
+      </c>
+      <c r="S362">
+        <v>146.97581340020579</v>
+      </c>
+      <c r="T362">
+        <v>52.720947681017797</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>374</v>
       </c>
@@ -23173,8 +25566,23 @@
       <c r="N363" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P363" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>34</v>
+      </c>
+      <c r="R363" t="s">
+        <v>28</v>
+      </c>
+      <c r="S363">
+        <v>123.4090318341122</v>
+      </c>
+      <c r="T363">
+        <v>35.552710484970419</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>375</v>
       </c>
@@ -23218,8 +25626,23 @@
       <c r="N364" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P364" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>34</v>
+      </c>
+      <c r="R364" t="s">
+        <v>28</v>
+      </c>
+      <c r="S364">
+        <v>85.719357435597189</v>
+      </c>
+      <c r="T364">
+        <v>47.142914262771349</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>377</v>
       </c>
@@ -23263,8 +25686,23 @@
       <c r="N365" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P365" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>55</v>
+      </c>
+      <c r="R365" t="s">
+        <v>28</v>
+      </c>
+      <c r="S365">
+        <v>81.184649443793916</v>
+      </c>
+      <c r="T365">
+        <v>49.794334090375607</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>379</v>
       </c>
@@ -23308,8 +25746,23 @@
       <c r="N366" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P366" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>34</v>
+      </c>
+      <c r="R366" t="s">
+        <v>28</v>
+      </c>
+      <c r="S366">
+        <v>143.4176048565121</v>
+      </c>
+      <c r="T366">
+        <v>38.487024866232439</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>381</v>
       </c>
@@ -23353,8 +25806,23 @@
       <c r="N367" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P367" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>55</v>
+      </c>
+      <c r="R367" t="s">
+        <v>28</v>
+      </c>
+      <c r="S367">
+        <v>89.010564256440276</v>
+      </c>
+      <c r="T367">
+        <v>63.489155881845583</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>383</v>
       </c>
@@ -23398,8 +25866,23 @@
       <c r="N368" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P368" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>34</v>
+      </c>
+      <c r="R368" t="s">
+        <v>28</v>
+      </c>
+      <c r="S368">
+        <v>134.0370788574219</v>
+      </c>
+      <c r="T368">
+        <v>54.492573991491518</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>385</v>
       </c>
@@ -23443,8 +25926,23 @@
       <c r="N369" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P369" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>27</v>
+      </c>
+      <c r="R369" t="s">
+        <v>28</v>
+      </c>
+      <c r="S369">
+        <v>85.714508928571433</v>
+      </c>
+      <c r="T369">
+        <v>54.95235934936229</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>387</v>
       </c>
@@ -23488,8 +25986,23 @@
       <c r="N370" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P370" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>27</v>
+      </c>
+      <c r="R370" t="s">
+        <v>115</v>
+      </c>
+      <c r="S370">
+        <v>123.8428275997899</v>
+      </c>
+      <c r="T370">
+        <v>45.83817715651184</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>389</v>
       </c>
@@ -23533,8 +26046,23 @@
       <c r="N371" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P371" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>55</v>
+      </c>
+      <c r="R371" t="s">
+        <v>28</v>
+      </c>
+      <c r="S371">
+        <v>133.0705430327869</v>
+      </c>
+      <c r="T371">
+        <v>53.449072678265047</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>391</v>
       </c>
@@ -23578,8 +26106,23 @@
       <c r="N372" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P372" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>34</v>
+      </c>
+      <c r="R372" t="s">
+        <v>28</v>
+      </c>
+      <c r="S372">
+        <v>119.72455078125</v>
+      </c>
+      <c r="T372">
+        <v>57.759907780913132</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -23623,8 +26166,23 @@
       <c r="N373" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P373" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>34</v>
+      </c>
+      <c r="R373" t="s">
+        <v>28</v>
+      </c>
+      <c r="S373">
+        <v>102.25755208333329</v>
+      </c>
+      <c r="T373">
+        <v>67.333939387109737</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>395</v>
       </c>
@@ -23668,8 +26226,23 @@
       <c r="N374" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P374" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>55</v>
+      </c>
+      <c r="R374" t="s">
+        <v>28</v>
+      </c>
+      <c r="S374">
+        <v>131.60351288056211</v>
+      </c>
+      <c r="T374">
+        <v>37.530788873240787</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>397</v>
       </c>
@@ -23713,8 +26286,23 @@
       <c r="N375" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P375" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>34</v>
+      </c>
+      <c r="R375" t="s">
+        <v>115</v>
+      </c>
+      <c r="S375">
+        <v>76.427026643990928</v>
+      </c>
+      <c r="T375">
+        <v>45.442094333490623</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>399</v>
       </c>
@@ -23758,8 +26346,23 @@
       <c r="N376" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P376" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>55</v>
+      </c>
+      <c r="R376" t="s">
+        <v>28</v>
+      </c>
+      <c r="S376">
+        <v>169.09309035966979</v>
+      </c>
+      <c r="T376">
+        <v>61.016031277040859</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>401</v>
       </c>
@@ -23803,8 +26406,23 @@
       <c r="N377" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P377" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>192</v>
+      </c>
+      <c r="R377" t="s">
+        <v>28</v>
+      </c>
+      <c r="S377">
+        <v>117.1948514344262</v>
+      </c>
+      <c r="T377">
+        <v>37.794236213100177</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>403</v>
       </c>
@@ -23848,8 +26466,23 @@
       <c r="N378" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P378" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>55</v>
+      </c>
+      <c r="R378" t="s">
+        <v>28</v>
+      </c>
+      <c r="S378">
+        <v>150.22319964871201</v>
+      </c>
+      <c r="T378">
+        <v>74.04256876017628</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>405</v>
       </c>
@@ -23893,8 +26526,23 @@
       <c r="N379" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P379" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>34</v>
+      </c>
+      <c r="R379" t="s">
+        <v>28</v>
+      </c>
+      <c r="S379">
+        <v>140.37270199063229</v>
+      </c>
+      <c r="T379">
+        <v>54.347617823783217</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>407</v>
       </c>
@@ -23938,8 +26586,23 @@
       <c r="N380" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P380" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>55</v>
+      </c>
+      <c r="R380" t="s">
+        <v>28</v>
+      </c>
+      <c r="S380">
+        <v>150.13644247658081</v>
+      </c>
+      <c r="T380">
+        <v>46.040438254438193</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>409</v>
       </c>
@@ -23983,8 +26646,23 @@
       <c r="N381" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P381" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>55</v>
+      </c>
+      <c r="R381" t="s">
+        <v>28</v>
+      </c>
+      <c r="S381">
+        <v>132.57794160798119</v>
+      </c>
+      <c r="T381">
+        <v>61.326601979585071</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>411</v>
       </c>
@@ -24028,8 +26706,23 @@
       <c r="N382" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P382" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>34</v>
+      </c>
+      <c r="R382" t="s">
+        <v>28</v>
+      </c>
+      <c r="S382">
+        <v>132.52738217213121</v>
+      </c>
+      <c r="T382">
+        <v>42.860649856491023</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>413</v>
       </c>
@@ -24073,8 +26766,23 @@
       <c r="N383" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P383" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>27</v>
+      </c>
+      <c r="R383" t="s">
+        <v>115</v>
+      </c>
+      <c r="S383">
+        <v>134.34005415690871</v>
+      </c>
+      <c r="T383">
+        <v>52.275067834986423</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>415</v>
       </c>
@@ -24118,8 +26826,23 @@
       <c r="N384" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P384" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>27</v>
+      </c>
+      <c r="R384" t="s">
+        <v>28</v>
+      </c>
+      <c r="S384">
+        <v>136.8268340680101</v>
+      </c>
+      <c r="T384">
+        <v>66.686677992814779</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>417</v>
       </c>
@@ -24163,8 +26886,23 @@
       <c r="N385" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P385" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>55</v>
+      </c>
+      <c r="R385" t="s">
+        <v>28</v>
+      </c>
+      <c r="S385">
+        <v>193.4334967798595</v>
+      </c>
+      <c r="T385">
+        <v>73.434713750537057</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>419</v>
       </c>
@@ -24208,8 +26946,23 @@
       <c r="N386" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P386" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>55</v>
+      </c>
+      <c r="R386" t="s">
+        <v>28</v>
+      </c>
+      <c r="S386">
+        <v>169.09309035966979</v>
+      </c>
+      <c r="T386">
+        <v>61.016031277040859</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>420</v>
       </c>
@@ -24253,8 +27006,23 @@
       <c r="N387" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P387" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>55</v>
+      </c>
+      <c r="R387" t="s">
+        <v>28</v>
+      </c>
+      <c r="S387">
+        <v>115.5707735655738</v>
+      </c>
+      <c r="T387">
+        <v>48.279298621538658</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>422</v>
       </c>
@@ -24298,8 +27066,23 @@
       <c r="N388" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P388" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>55</v>
+      </c>
+      <c r="R388" t="s">
+        <v>28</v>
+      </c>
+      <c r="S388">
+        <v>148.13468237704919</v>
+      </c>
+      <c r="T388">
+        <v>58.588662862995143</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>424</v>
       </c>
@@ -24343,8 +27126,23 @@
       <c r="N389" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P389" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>34</v>
+      </c>
+      <c r="R389" t="s">
+        <v>28</v>
+      </c>
+      <c r="S389">
+        <v>91.615387148711946</v>
+      </c>
+      <c r="T389">
+        <v>35.066632492467242</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>426</v>
       </c>
@@ -24388,8 +27186,23 @@
       <c r="N390" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P390" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>27</v>
+      </c>
+      <c r="R390" t="s">
+        <v>28</v>
+      </c>
+      <c r="S390">
+        <v>109.04907786885251</v>
+      </c>
+      <c r="T390">
+        <v>59.62714093712291</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>428</v>
       </c>
@@ -24433,8 +27246,23 @@
       <c r="N391" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P391" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>55</v>
+      </c>
+      <c r="R391" t="s">
+        <v>28</v>
+      </c>
+      <c r="S391">
+        <v>118.5108533372365</v>
+      </c>
+      <c r="T391">
+        <v>46.157241475033551</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>430</v>
       </c>
@@ -24478,8 +27306,23 @@
       <c r="N392" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P392" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>55</v>
+      </c>
+      <c r="R392" t="s">
+        <v>28</v>
+      </c>
+      <c r="S392">
+        <v>89.630763319672127</v>
+      </c>
+      <c r="T392">
+        <v>51.662727936479143</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>432</v>
       </c>
@@ -24523,8 +27366,23 @@
       <c r="N393" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P393" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>34</v>
+      </c>
+      <c r="R393" t="s">
+        <v>28</v>
+      </c>
+      <c r="S393">
+        <v>161.7372131347656</v>
+      </c>
+      <c r="T393">
+        <v>39.689963042403512</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>434</v>
       </c>
@@ -24568,8 +27426,23 @@
       <c r="N394" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P394" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>34</v>
+      </c>
+      <c r="R394" t="s">
+        <v>28</v>
+      </c>
+      <c r="S394">
+        <v>116.83142845812181</v>
+      </c>
+      <c r="T394">
+        <v>44.124090522068542</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>436</v>
       </c>
@@ -24613,8 +27486,23 @@
       <c r="N395" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P395" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>34</v>
+      </c>
+      <c r="R395" t="s">
+        <v>28</v>
+      </c>
+      <c r="S395">
+        <v>114.56817183840749</v>
+      </c>
+      <c r="T395">
+        <v>46.571052789669771</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>438</v>
       </c>
@@ -24658,8 +27546,23 @@
       <c r="N396" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P396" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>34</v>
+      </c>
+      <c r="R396" t="s">
+        <v>28</v>
+      </c>
+      <c r="S396">
+        <v>74.335739900468383</v>
+      </c>
+      <c r="T396">
+        <v>47.28659545812048</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>440</v>
       </c>
@@ -24703,8 +27606,23 @@
       <c r="N397" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P397" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>34</v>
+      </c>
+      <c r="R397" t="s">
+        <v>115</v>
+      </c>
+      <c r="S397">
+        <v>102.12775907494149</v>
+      </c>
+      <c r="T397">
+        <v>38.768192245696078</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>442</v>
       </c>
@@ -24748,51 +27666,28 @@
       <c r="N398" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+      <c r="P398" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>27</v>
+      </c>
+      <c r="R398" t="s">
+        <v>28</v>
+      </c>
+      <c r="S398">
+        <v>154.74990120023421</v>
+      </c>
+      <c r="T398">
+        <v>47.8973821724747</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>818</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B400" t="s">
         <v>819</v>
-      </c>
-      <c r="C399" t="s">
-        <v>22</v>
-      </c>
-      <c r="D399">
-        <v>4.4467453956604004</v>
-      </c>
-      <c r="E399">
-        <v>2.794730663299561</v>
-      </c>
-      <c r="F399">
-        <v>4.529240608215332</v>
-      </c>
-      <c r="G399">
-        <v>15</v>
-      </c>
-      <c r="H399">
-        <v>32</v>
-      </c>
-      <c r="I399">
-        <v>96</v>
-      </c>
-      <c r="J399">
-        <v>0.99997912759403473</v>
-      </c>
-      <c r="K399" t="s">
-        <v>23</v>
-      </c>
-      <c r="L399" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
-        <v>820</v>
-      </c>
-      <c r="B400" t="s">
-        <v>821</v>
       </c>
       <c r="C400" t="s">
         <v>60</v>
@@ -24822,53 +27717,30 @@
         <v>23</v>
       </c>
       <c r="L400" t="s">
+        <v>820</v>
+      </c>
+      <c r="P400" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>34</v>
+      </c>
+      <c r="R400" t="s">
+        <v>28</v>
+      </c>
+      <c r="S400">
+        <v>153.97391065140849</v>
+      </c>
+      <c r="T400">
+        <v>39.961964802839347</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>821</v>
+      </c>
+      <c r="B402" t="s">
         <v>822</v>
-      </c>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
-        <v>823</v>
-      </c>
-      <c r="B401" t="s">
-        <v>824</v>
-      </c>
-      <c r="C401" t="s">
-        <v>60</v>
-      </c>
-      <c r="D401">
-        <v>5.2954621315002441</v>
-      </c>
-      <c r="E401">
-        <v>3.5730957984924321</v>
-      </c>
-      <c r="F401">
-        <v>3.571844100952148</v>
-      </c>
-      <c r="G401">
-        <v>15</v>
-      </c>
-      <c r="H401">
-        <v>39</v>
-      </c>
-      <c r="I401">
-        <v>100</v>
-      </c>
-      <c r="J401">
-        <v>0.99994136157056523</v>
-      </c>
-      <c r="K401" t="s">
-        <v>23</v>
-      </c>
-      <c r="L401" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>825</v>
-      </c>
-      <c r="B402" t="s">
-        <v>826</v>
       </c>
       <c r="C402" t="s">
         <v>22</v>
@@ -24898,15 +27770,30 @@
         <v>143</v>
       </c>
       <c r="L402" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="P402" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>55</v>
+      </c>
+      <c r="R402" t="s">
+        <v>28</v>
+      </c>
+      <c r="S402">
+        <v>123.8455</v>
+      </c>
+      <c r="T402">
+        <v>41.837949999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B403" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C403" t="s">
         <v>22</v>
@@ -24936,15 +27823,30 @@
         <v>143</v>
       </c>
       <c r="L403" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="P403" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>55</v>
+      </c>
+      <c r="R403" t="s">
+        <v>115</v>
+      </c>
+      <c r="S403">
+        <v>134.86789999999999</v>
+      </c>
+      <c r="T403">
+        <v>48.569670000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B404" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C404" t="s">
         <v>22</v>
@@ -24974,129 +27876,42 @@
         <v>143</v>
       </c>
       <c r="L404" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>831</v>
-      </c>
-      <c r="B405" t="s">
-        <v>832</v>
-      </c>
-      <c r="C405" t="s">
-        <v>22</v>
-      </c>
-      <c r="D405">
-        <v>3.762249231338501</v>
-      </c>
-      <c r="E405">
-        <v>2.969679594039917</v>
-      </c>
-      <c r="F405">
-        <v>4.8949732780456543</v>
-      </c>
-      <c r="G405">
-        <v>15</v>
-      </c>
-      <c r="H405">
-        <v>39</v>
-      </c>
-      <c r="I405">
-        <v>110</v>
-      </c>
-      <c r="J405">
-        <v>0.9998971757517322</v>
-      </c>
-      <c r="K405" t="s">
-        <v>248</v>
-      </c>
-      <c r="L405" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>833</v>
-      </c>
-      <c r="B406" t="s">
-        <v>834</v>
-      </c>
-      <c r="C406" t="s">
-        <v>22</v>
-      </c>
-      <c r="D406">
-        <v>5.5695595741271973</v>
-      </c>
-      <c r="E406">
-        <v>2.890127420425415</v>
-      </c>
-      <c r="F406">
-        <v>4.03131103515625</v>
-      </c>
-      <c r="G406">
-        <v>16</v>
-      </c>
-      <c r="H406">
-        <v>33</v>
-      </c>
-      <c r="I406">
-        <v>101</v>
-      </c>
-      <c r="J406">
-        <v>0.99993512667463846</v>
-      </c>
-      <c r="K406" t="s">
-        <v>248</v>
-      </c>
-      <c r="L406" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>835</v>
-      </c>
-      <c r="B407" t="s">
-        <v>836</v>
-      </c>
-      <c r="C407" t="s">
-        <v>22</v>
-      </c>
-      <c r="D407">
-        <v>3.716305017471313</v>
-      </c>
-      <c r="E407">
-        <v>2.8449165821075439</v>
-      </c>
-      <c r="F407">
-        <v>3.423285961151123</v>
-      </c>
-      <c r="G407">
-        <v>15</v>
-      </c>
-      <c r="H407">
-        <v>34</v>
-      </c>
-      <c r="I407">
-        <v>116</v>
-      </c>
-      <c r="J407">
-        <v>0.99992034636582638</v>
-      </c>
-      <c r="K407" t="s">
-        <v>248</v>
-      </c>
-      <c r="L407" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="P404" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>27</v>
+      </c>
+      <c r="R404" t="s">
+        <v>28</v>
+      </c>
+      <c r="S404">
+        <v>121.6758</v>
+      </c>
+      <c r="T404">
+        <v>48.048119999999997</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S405" s="10"/>
+      <c r="T405" s="10"/>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S406" s="10"/>
+      <c r="T406" s="10"/>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S407" s="10"/>
+      <c r="T407" s="10"/>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="B408" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C408" t="s">
         <v>22</v>
@@ -25126,15 +27941,30 @@
         <v>347</v>
       </c>
       <c r="L408" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="P408" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>55</v>
+      </c>
+      <c r="R408" t="s">
+        <v>28</v>
+      </c>
+      <c r="S408" s="10">
+        <v>172.77809999999999</v>
+      </c>
+      <c r="T408" s="10">
+        <v>59.644309999999997</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="B409" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C409" t="s">
         <v>22</v>
@@ -25164,15 +27994,30 @@
         <v>347</v>
       </c>
       <c r="L409" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="P409" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>55</v>
+      </c>
+      <c r="R409" t="s">
+        <v>28</v>
+      </c>
+      <c r="S409" s="10">
+        <v>138.30119999999999</v>
+      </c>
+      <c r="T409" s="10">
+        <v>43.549489999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="B410" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
@@ -25202,7 +28047,22 @@
         <v>347</v>
       </c>
       <c r="L410" t="s">
-        <v>822</v>
+        <v>820</v>
+      </c>
+      <c r="P410" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>27</v>
+      </c>
+      <c r="R410" t="s">
+        <v>115</v>
+      </c>
+      <c r="S410" s="10">
+        <v>101.7071</v>
+      </c>
+      <c r="T410" s="10">
+        <v>30.973099999999999</v>
       </c>
     </row>
   </sheetData>
